--- a/Dokumentacija/Garaze i Parkiralista.xlsx
+++ b/Dokumentacija/Garaze i Parkiralista.xlsx
@@ -449,7 +449,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
